--- a/docs/samples/smfGetOptionExpirations-Strikes-Quotes-Example.xlsx
+++ b/docs/samples/smfGetOptionExpirations-Strikes-Quotes-Example.xlsx
@@ -494,7 +494,7 @@
   <dimension ref="B2:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
